--- a/Data/Q/Cross_Section_Surveys/LBJ_cross_section.xlsx
+++ b/Data/Q/Cross_Section_Surveys/LBJ_cross_section.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sediment-Flux\Data\Q\Cross Section Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sediment-Flux\Data\Q\Cross_Section_Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,6 @@
     <sheet name="LBJ" sheetId="1" r:id="rId1"/>
     <sheet name="LBJ_m" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -509,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226097216"/>
-        <c:axId val="226099568"/>
+        <c:axId val="406061520"/>
+        <c:axId val="406061912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226097216"/>
+        <c:axId val="406061520"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="16"/>
@@ -550,12 +546,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226099568"/>
+        <c:crossAx val="406061912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226099568"/>
+        <c:axId val="406061912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226097216"/>
+        <c:crossAx val="406061520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -620,6 +616,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -836,11 +833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226099176"/>
-        <c:axId val="226098392"/>
+        <c:axId val="406062696"/>
+        <c:axId val="406063088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226099176"/>
+        <c:axId val="406062696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -898,12 +895,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226098392"/>
+        <c:crossAx val="406063088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226098392"/>
+        <c:axId val="406063088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226099176"/>
+        <c:crossAx val="406062696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226093688"/>
-        <c:axId val="226095256"/>
+        <c:axId val="681743568"/>
+        <c:axId val="622343736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226093688"/>
+        <c:axId val="681743568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,13 +1323,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226095256"/>
+        <c:crossAx val="622343736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226095256"/>
+        <c:axId val="622343736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226093688"/>
+        <c:crossAx val="681743568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2631,985 +2628,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="R2_m"/>
-      <sheetName val="R2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="F7">
-            <v>0</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.6604000000000001</v>
-          </cell>
-          <cell r="I7">
-            <v>0.8254999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.60960000000000003</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.86360000000000003</v>
-          </cell>
-          <cell r="I8">
-            <v>0.62229999999999996</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>1.2192000000000001</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.95250000000000001</v>
-          </cell>
-          <cell r="I9">
-            <v>0.53339999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>1.4478</v>
-          </cell>
-          <cell r="H10">
-            <v>-1.1811</v>
-          </cell>
-          <cell r="I10">
-            <v>0.30479999999999996</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>1.4478</v>
-          </cell>
-          <cell r="H11">
-            <v>-1.2573000000000001</v>
-          </cell>
-          <cell r="I11">
-            <v>0.22859999999999991</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>1.8288</v>
-          </cell>
-          <cell r="H12">
-            <v>-1.2255500000000001</v>
-          </cell>
-          <cell r="I12">
-            <v>0.26034999999999986</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2.4384000000000001</v>
-          </cell>
-          <cell r="H13">
-            <v>-1.2953999999999999</v>
-          </cell>
-          <cell r="I13">
-            <v>0.19050000000000011</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>3.048</v>
-          </cell>
-          <cell r="H14">
-            <v>-1.4859</v>
-          </cell>
-          <cell r="I14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>3.6576</v>
-          </cell>
-          <cell r="H15">
-            <v>-1.2827000000000002</v>
-          </cell>
-          <cell r="I15">
-            <v>0.20319999999999983</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>4.2672000000000008</v>
-          </cell>
-          <cell r="H16">
-            <v>-1.4478</v>
-          </cell>
-          <cell r="I16">
-            <v>3.8100000000000023E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>4.7091599999999998</v>
-          </cell>
-          <cell r="H17">
-            <v>-1.3208000000000002</v>
-          </cell>
-          <cell r="I17">
-            <v>0.1650999999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>4.7091599999999998</v>
-          </cell>
-          <cell r="H18">
-            <v>-1.3715999999999999</v>
-          </cell>
-          <cell r="I18">
-            <v>0.11430000000000007</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>4.8768000000000002</v>
-          </cell>
-          <cell r="H19">
-            <v>-1.3462000000000001</v>
-          </cell>
-          <cell r="I19">
-            <v>0.13969999999999994</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>4.8769999999999998</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>-66.040000000000006</v>
-          </cell>
-          <cell r="I6">
-            <v>82.55</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>60.96</v>
-          </cell>
-          <cell r="H7">
-            <v>-86.36</v>
-          </cell>
-          <cell r="I7">
-            <v>62.230000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>121.92</v>
-          </cell>
-          <cell r="H8">
-            <v>-95.25</v>
-          </cell>
-          <cell r="I8">
-            <v>53.34</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>144.78</v>
-          </cell>
-          <cell r="H9">
-            <v>-118.11</v>
-          </cell>
-          <cell r="I9">
-            <v>30.480000000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>144.78</v>
-          </cell>
-          <cell r="H10">
-            <v>-125.73</v>
-          </cell>
-          <cell r="I10">
-            <v>22.86</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>182.88</v>
-          </cell>
-          <cell r="H11">
-            <v>-122.55500000000001</v>
-          </cell>
-          <cell r="I11">
-            <v>26.034999999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>243.84</v>
-          </cell>
-          <cell r="H12">
-            <v>-129.54</v>
-          </cell>
-          <cell r="I12">
-            <v>19.050000000000011</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>304.8</v>
-          </cell>
-          <cell r="H13">
-            <v>-148.59</v>
-          </cell>
-          <cell r="I13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>365.76</v>
-          </cell>
-          <cell r="H14">
-            <v>-128.27000000000001</v>
-          </cell>
-          <cell r="I14">
-            <v>20.319999999999993</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>426.72</v>
-          </cell>
-          <cell r="H15">
-            <v>-144.78</v>
-          </cell>
-          <cell r="I15">
-            <v>3.8100000000000023</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>470.91599999999994</v>
-          </cell>
-          <cell r="H16">
-            <v>-132.08000000000001</v>
-          </cell>
-          <cell r="I16">
-            <v>16.509999999999991</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>470.91599999999994</v>
-          </cell>
-          <cell r="H17">
-            <v>-137.16</v>
-          </cell>
-          <cell r="I17">
-            <v>11.430000000000007</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>487.68</v>
-          </cell>
-          <cell r="H18">
-            <v>-134.62</v>
-          </cell>
-          <cell r="I18">
-            <v>13.969999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DAM"/>
-      <sheetName val="DAM_m"/>
-      <sheetName val="DAM_m (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="F7">
-            <v>30.48</v>
-          </cell>
-          <cell r="H7">
-            <v>-31.75</v>
-          </cell>
-          <cell r="I7">
-            <v>154.94</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>60.96</v>
-          </cell>
-          <cell r="H8">
-            <v>-40.64</v>
-          </cell>
-          <cell r="I8">
-            <v>146.05000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>91.44</v>
-          </cell>
-          <cell r="I9">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>121.92</v>
-          </cell>
-          <cell r="H10">
-            <v>-55.88</v>
-          </cell>
-          <cell r="I10">
-            <v>130.81</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>152.4</v>
-          </cell>
-          <cell r="I11">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>182.88</v>
-          </cell>
-          <cell r="H12">
-            <v>-70.484999999999999</v>
-          </cell>
-          <cell r="I12">
-            <v>116.205</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>213.36</v>
-          </cell>
-          <cell r="I13">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>243.84</v>
-          </cell>
-          <cell r="H14">
-            <v>-90.17</v>
-          </cell>
-          <cell r="I14">
-            <v>96.52</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>274.32</v>
-          </cell>
-          <cell r="I15">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>304.8</v>
-          </cell>
-          <cell r="H16">
-            <v>-102.87</v>
-          </cell>
-          <cell r="I16">
-            <v>83.82</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>335.28000000000003</v>
-          </cell>
-          <cell r="I17">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>365.76</v>
-          </cell>
-          <cell r="H18">
-            <v>-120.015</v>
-          </cell>
-          <cell r="I18">
-            <v>66.674999999999997</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>396.24</v>
-          </cell>
-          <cell r="I19">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>426.72</v>
-          </cell>
-          <cell r="H20">
-            <v>-135.255</v>
-          </cell>
-          <cell r="I20">
-            <v>51.435000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>457.2</v>
-          </cell>
-          <cell r="H21">
-            <v>-140.97</v>
-          </cell>
-          <cell r="I21">
-            <v>45.72</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>487.68</v>
-          </cell>
-          <cell r="H22">
-            <v>-186.05500000000001</v>
-          </cell>
-          <cell r="I22">
-            <v>0.63499999999999091</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>518.16</v>
-          </cell>
-          <cell r="I23">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>548.64</v>
-          </cell>
-          <cell r="H24">
-            <v>-186.05500000000001</v>
-          </cell>
-          <cell r="I24">
-            <v>0.63499999999999091</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>579.12</v>
-          </cell>
-          <cell r="I25">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>609.6</v>
-          </cell>
-          <cell r="H26">
-            <v>-186.69</v>
-          </cell>
-          <cell r="I26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>640.08000000000004</v>
-          </cell>
-          <cell r="I27">
-            <v>186.69</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>186.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="F7">
-            <v>0.30480000000000002</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.3175</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.60960000000000003</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.40640000000000004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>1.2192000000000001</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.55880000000000007</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>1.8288</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.70484999999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>2.4384000000000001</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.90170000000000006</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>3.048</v>
-          </cell>
-          <cell r="H12">
-            <v>-1.0287000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>3.6576</v>
-          </cell>
-          <cell r="H13">
-            <v>-1.2001500000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>4.2672000000000008</v>
-          </cell>
-          <cell r="H14">
-            <v>-1.3525499999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>4.5720000000000001</v>
-          </cell>
-          <cell r="H15">
-            <v>-1.4097</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>4.5720000000000001</v>
-          </cell>
-          <cell r="H16">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>5.4863999999999997</v>
-          </cell>
-          <cell r="H17">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>6.0960000000000001</v>
-          </cell>
-          <cell r="H18">
-            <v>-1.8669</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>6.7056000000000004</v>
-          </cell>
-          <cell r="H19">
-            <v>-1.8669</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>7.62</v>
-          </cell>
-          <cell r="H20">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>7.62</v>
-          </cell>
-          <cell r="H21">
-            <v>-1.4224000000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>7.9248000000000003</v>
-          </cell>
-          <cell r="H22">
-            <v>-1.3334999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>8.2296000000000014</v>
-          </cell>
-          <cell r="H23">
-            <v>-1.27</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>8.5344000000000015</v>
-          </cell>
-          <cell r="H24">
-            <v>-1.1684000000000001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>8.8391999999999999</v>
-          </cell>
-          <cell r="H25">
-            <v>-1.016</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>9.1440000000000001</v>
-          </cell>
-          <cell r="H26">
-            <v>-0.99695000000000011</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>9.4488000000000003</v>
-          </cell>
-          <cell r="H27">
-            <v>-0.95250000000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>9.7536000000000005</v>
-          </cell>
-          <cell r="H28">
-            <v>-0.85724999999999996</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>10.058400000000001</v>
-          </cell>
-          <cell r="H29">
-            <v>-0.82550000000000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>10.058400000000001</v>
-          </cell>
-          <cell r="H30">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="F7">
-            <v>0.30480000000000002</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.3175</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.60960000000000003</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.40640000000000004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.91439999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>1.2192000000000001</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.55880000000000007</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>1.524</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>1.8288</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.70484999999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2.1336000000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>2.4384000000000001</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.90170000000000006</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>2.7431999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>3.048</v>
-          </cell>
-          <cell r="H16">
-            <v>-1.0287000000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>3.3528000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>3.6576</v>
-          </cell>
-          <cell r="H18">
-            <v>-1.2001500000000001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>3.9624000000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>4.2672000000000008</v>
-          </cell>
-          <cell r="H20">
-            <v>-1.3525499999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>4.5720000000000001</v>
-          </cell>
-          <cell r="H21">
-            <v>-1.4097</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>4.5720000000000001</v>
-          </cell>
-          <cell r="H22">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>5.1815999999999995</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>5.4863999999999997</v>
-          </cell>
-          <cell r="H24">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>5.7911999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>6.0960000000000001</v>
-          </cell>
-          <cell r="H26">
-            <v>-1.8669</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>6.4008000000000003</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>6.7056000000000004</v>
-          </cell>
-          <cell r="H28">
-            <v>-1.8669</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>7.0103999999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>7.62</v>
-          </cell>
-          <cell r="H30">
-            <v>-1.8605500000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>7.62</v>
-          </cell>
-          <cell r="H31">
-            <v>-1.4224000000000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>7.9248000000000003</v>
-          </cell>
-          <cell r="H32">
-            <v>-1.3334999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>8.2296000000000014</v>
-          </cell>
-          <cell r="H33">
-            <v>-1.27</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>8.5344000000000015</v>
-          </cell>
-          <cell r="H34">
-            <v>-1.1684000000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>8.8391999999999999</v>
-          </cell>
-          <cell r="H35">
-            <v>-1.016</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>9.1440000000000001</v>
-          </cell>
-          <cell r="H36">
-            <v>-0.99695000000000011</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>9.4488000000000003</v>
-          </cell>
-          <cell r="H37">
-            <v>-0.95250000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>9.7536000000000005</v>
-          </cell>
-          <cell r="H38">
-            <v>-0.85724999999999996</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>10.058400000000001</v>
-          </cell>
-          <cell r="H39">
-            <v>-0.82550000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>10.058400000000001</v>
-          </cell>
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Data/Q/Cross_Section_Surveys/LBJ_cross_section.xlsx
+++ b/Data/Q/Cross_Section_Surveys/LBJ_cross_section.xlsx
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406061520"/>
-        <c:axId val="406061912"/>
+        <c:axId val="508059408"/>
+        <c:axId val="508055880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406061520"/>
+        <c:axId val="508059408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="16"/>
@@ -546,12 +546,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406061912"/>
+        <c:crossAx val="508055880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406061912"/>
+        <c:axId val="508055880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,19 +574,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406061520"/>
+        <c:crossAx val="508059408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -833,11 +835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406062696"/>
-        <c:axId val="406063088"/>
+        <c:axId val="508053136"/>
+        <c:axId val="508054312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406062696"/>
+        <c:axId val="508053136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -895,12 +897,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406063088"/>
+        <c:crossAx val="508054312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406063088"/>
+        <c:axId val="508054312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406062696"/>
+        <c:crossAx val="508053136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1276,11 +1278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="681743568"/>
-        <c:axId val="622343736"/>
+        <c:axId val="508057840"/>
+        <c:axId val="508059800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="681743568"/>
+        <c:axId val="508057840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,13 +1325,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622343736"/>
+        <c:crossAx val="508059800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="622343736"/>
+        <c:axId val="508059800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681743568"/>
+        <c:crossAx val="508057840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3472,7 +3474,7 @@
   <dimension ref="A2:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F3" sqref="F3:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" ref="I6:I26" si="0">H6+MAX($G$6:$G$26)</f>
+        <f>H6+MAX($G$6:$G$26)</f>
         <v>1.46685</v>
       </c>
       <c r="J6">
@@ -3641,19 +3643,19 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="14">
-        <f t="shared" ref="F7:F24" si="1">B7*12*0.0254</f>
+        <f t="shared" ref="F7:F24" si="0">B7*12*0.0254</f>
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ref="G7:G24" si="2">((C7*12)+D7)*0.0254</f>
+        <f t="shared" ref="G7:G24" si="1">((C7*12)+D7)*0.0254</f>
         <v>1.4223999999999999</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:H24" si="3">-G7</f>
+        <f t="shared" ref="H7:H24" si="2">-G7</f>
         <v>-1.4223999999999999</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I6:I26" si="3">H7+MAX($G$6:$G$26)</f>
         <v>4.4450000000000101E-2</v>
       </c>
       <c r="J7" s="12">
@@ -3695,19 +3697,19 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30479999999999996</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.30479999999999996</v>
-      </c>
-      <c r="G8" s="9">
+        <v>1.4604999999999999</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>1.4604999999999999</v>
-      </c>
-      <c r="H8" s="9">
+        <v>-1.4604999999999999</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4604999999999999</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
         <v>6.3500000000000778E-3</v>
       </c>
       <c r="J8" s="12">
@@ -3748,19 +3750,19 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60959999999999992</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="G9" s="9">
+        <v>1.46685</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>1.46685</v>
-      </c>
-      <c r="H9" s="9">
+        <v>-1.46685</v>
+      </c>
+      <c r="I9" s="12">
         <f t="shared" si="3"/>
-        <v>-1.46685</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="12">
@@ -3801,19 +3803,19 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="G10" s="9">
+        <v>1.4541499999999998</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>1.4541499999999998</v>
-      </c>
-      <c r="H10" s="9">
+        <v>-1.4541499999999998</v>
+      </c>
+      <c r="I10" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4541499999999998</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
         <v>1.2700000000000156E-2</v>
       </c>
       <c r="J10" s="12">
@@ -3854,19 +3856,19 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2191999999999998</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>1.2191999999999998</v>
-      </c>
-      <c r="G11" s="9">
+        <v>1.46685</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>1.46685</v>
-      </c>
-      <c r="H11" s="9">
+        <v>-1.46685</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
-        <v>-1.46685</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="12">
@@ -3907,19 +3909,19 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>1.524</v>
-      </c>
-      <c r="G12" s="9">
+        <v>1.46685</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="2"/>
-        <v>1.46685</v>
-      </c>
-      <c r="H12" s="9">
+        <v>-1.46685</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" si="3"/>
-        <v>-1.46685</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="12">
@@ -3960,19 +3962,19 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8288</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>1.8288</v>
-      </c>
-      <c r="G13" s="9">
+        <v>1.4541499999999998</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>1.4541499999999998</v>
-      </c>
-      <c r="H13" s="9">
+        <v>-1.4541499999999998</v>
+      </c>
+      <c r="I13" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4541499999999998</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="0"/>
         <v>1.2700000000000156E-2</v>
       </c>
       <c r="J13" s="12">
@@ -4013,19 +4015,19 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>2.1335999999999999</v>
-      </c>
-      <c r="G14" s="9">
+        <v>1.42875</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="2"/>
-        <v>1.42875</v>
-      </c>
-      <c r="H14" s="9">
+        <v>-1.42875</v>
+      </c>
+      <c r="I14" s="12">
         <f t="shared" si="3"/>
-        <v>-1.42875</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="0"/>
         <v>3.8100000000000023E-2</v>
       </c>
       <c r="J14" s="12">
@@ -4066,19 +4068,19 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4383999999999997</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>2.4383999999999997</v>
-      </c>
-      <c r="G15" s="9">
+        <v>1.4223999999999999</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
-        <v>1.4223999999999999</v>
-      </c>
-      <c r="H15" s="9">
+        <v>-1.4223999999999999</v>
+      </c>
+      <c r="I15" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4223999999999999</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
         <v>4.4450000000000101E-2</v>
       </c>
       <c r="J15" s="12">
@@ -4119,19 +4121,19 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7431999999999999</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>2.7431999999999999</v>
-      </c>
-      <c r="G16" s="9">
+        <v>1.3652499999999999</v>
+      </c>
+      <c r="H16" s="9">
         <f t="shared" si="2"/>
-        <v>1.3652499999999999</v>
-      </c>
-      <c r="H16" s="9">
+        <v>-1.3652499999999999</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3652499999999999</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="0"/>
         <v>0.10160000000000013</v>
       </c>
       <c r="J16" s="12">
@@ -4172,19 +4174,19 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>3.048</v>
-      </c>
-      <c r="G17" s="9">
+        <v>1.3715999999999999</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="2"/>
-        <v>1.3715999999999999</v>
-      </c>
-      <c r="H17" s="9">
+        <v>-1.3715999999999999</v>
+      </c>
+      <c r="I17" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3715999999999999</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="0"/>
         <v>9.5250000000000057E-2</v>
       </c>
       <c r="J17" s="12">
@@ -4225,19 +4227,19 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3527999999999998</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>3.3527999999999998</v>
-      </c>
-      <c r="G18" s="9">
+        <v>1.397</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" si="2"/>
-        <v>1.397</v>
-      </c>
-      <c r="H18" s="9">
+        <v>-1.397</v>
+      </c>
+      <c r="I18" s="12">
         <f t="shared" si="3"/>
-        <v>-1.397</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
         <v>6.9849999999999968E-2</v>
       </c>
       <c r="J18" s="12">
@@ -4278,19 +4280,19 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6576</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>3.6576</v>
-      </c>
-      <c r="G19" s="9">
+        <v>1.4033499999999999</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="2"/>
-        <v>1.4033499999999999</v>
-      </c>
-      <c r="H19" s="9">
+        <v>-1.4033499999999999</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4033499999999999</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="0"/>
         <v>6.3500000000000112E-2</v>
       </c>
       <c r="J19" s="12">
@@ -4331,19 +4333,19 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9623999999999997</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>3.9623999999999997</v>
-      </c>
-      <c r="G20" s="9">
+        <v>1.4097</v>
+      </c>
+      <c r="H20" s="9">
         <f t="shared" si="2"/>
-        <v>1.4097</v>
-      </c>
-      <c r="H20" s="9">
+        <v>-1.4097</v>
+      </c>
+      <c r="I20" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4097</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="0"/>
         <v>5.7150000000000034E-2</v>
       </c>
       <c r="J20" s="12">
@@ -4384,19 +4386,19 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>4.2671999999999999</v>
-      </c>
-      <c r="G21" s="9">
+        <v>1.3461999999999998</v>
+      </c>
+      <c r="H21" s="9">
         <f t="shared" si="2"/>
-        <v>1.3461999999999998</v>
-      </c>
-      <c r="H21" s="9">
+        <v>-1.3461999999999998</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3461999999999998</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="0"/>
         <v>0.12065000000000015</v>
       </c>
       <c r="J21" s="12">
@@ -4437,19 +4439,19 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="G22" s="9">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="H22" s="9">
         <f t="shared" si="2"/>
-        <v>1.3334999999999999</v>
-      </c>
-      <c r="H22" s="9">
+        <v>-1.3334999999999999</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3334999999999999</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="0"/>
         <v>0.13335000000000008</v>
       </c>
       <c r="J22" s="12">
@@ -4492,19 +4494,19 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7244000000000002</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>4.7244000000000002</v>
-      </c>
-      <c r="G23" s="9">
+        <v>1.3208</v>
+      </c>
+      <c r="H23" s="9">
         <f t="shared" si="2"/>
-        <v>1.3208</v>
-      </c>
-      <c r="H23" s="9">
+        <v>-1.3208</v>
+      </c>
+      <c r="I23" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3208</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="0"/>
         <v>0.14605000000000001</v>
       </c>
       <c r="J23" s="12">
@@ -4545,19 +4547,19 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8767999999999994</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>4.8767999999999994</v>
-      </c>
-      <c r="G24" s="9">
+        <v>1.3144499999999999</v>
+      </c>
+      <c r="H24" s="9">
         <f t="shared" si="2"/>
-        <v>1.3144499999999999</v>
-      </c>
-      <c r="H24" s="9">
+        <v>-1.3144499999999999</v>
+      </c>
+      <c r="I24" s="12">
         <f t="shared" si="3"/>
-        <v>-1.3144499999999999</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" si="0"/>
         <v>0.15240000000000009</v>
       </c>
       <c r="J24" s="12">
@@ -4612,7 +4614,7 @@
         <v>-1.3081</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.15874999999999995</v>
       </c>
       <c r="J25" s="12">
@@ -4664,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.46685</v>
       </c>
       <c r="J26" s="12">
